--- a/Industry/201612-201908/HKD/MILLION/Analysis_45_24 - Stationery_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_45_24 - Stationery_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="1920" yWindow="1644"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -28576,6 +28577,1313 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7993.076</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8290.032999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.715</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5146.332</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7873.671</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-5.022</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4865.614</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-5.455</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3316.071</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3952.376</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.189</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2411.028</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3790.9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-4.086</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2436.306</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="J3" t="n">
+        <v>41.487</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47.676</v>
+      </c>
+      <c r="L3" t="n">
+        <v>46.849</v>
+      </c>
+      <c r="M3" t="n">
+        <v>48.147</v>
+      </c>
+      <c r="N3" t="n">
+        <v>50.072</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" t="n">
+        <v>869.603</v>
+      </c>
+      <c r="C4" t="n">
+        <v>721.024</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-17.086</v>
+      </c>
+      <c r="E4" t="n">
+        <v>497.599</v>
+      </c>
+      <c r="F4" t="n">
+        <v>781.961</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.452</v>
+      </c>
+      <c r="H4" t="n">
+        <v>515.127</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.523</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.879</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8.696999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9.669</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9.930999999999999</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10.587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" t="n">
+        <v>398.861</v>
+      </c>
+      <c r="C5" t="n">
+        <v>393.223</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.414</v>
+      </c>
+      <c r="E5" t="n">
+        <v>269.858</v>
+      </c>
+      <c r="F5" t="n">
+        <v>397.386</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.059</v>
+      </c>
+      <c r="H5" t="n">
+        <v>276.37</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.413</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.743</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.244</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5.047</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" t="n">
+        <v>683.0890000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>631.37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-7.571</v>
+      </c>
+      <c r="E6" t="n">
+        <v>287.39</v>
+      </c>
+      <c r="F6" t="n">
+        <v>386.114</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-38.845</v>
+      </c>
+      <c r="H6" t="n">
+        <v>248.408</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-13.564</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8.545999999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.616</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.584</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.904</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="n">
+        <v>461.445</v>
+      </c>
+      <c r="C7" t="n">
+        <v>396.36</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-14.105</v>
+      </c>
+      <c r="E7" t="n">
+        <v>244.266</v>
+      </c>
+      <c r="F7" t="n">
+        <v>370.27</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-6.583</v>
+      </c>
+      <c r="H7" t="n">
+        <v>240.127</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1.694</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.773</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.781</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.746</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.703</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" t="n">
+        <v>506.88</v>
+      </c>
+      <c r="C8" t="n">
+        <v>497.44</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1.862</v>
+      </c>
+      <c r="E8" t="n">
+        <v>342.151</v>
+      </c>
+      <c r="F8" t="n">
+        <v>497.476</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H8" t="n">
+        <v>231.58</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-32.316</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.341</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.648</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6.318</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" t="n">
+        <v>271.08</v>
+      </c>
+      <c r="C9" t="n">
+        <v>260.062</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-4.065</v>
+      </c>
+      <c r="E9" t="n">
+        <v>161.084</v>
+      </c>
+      <c r="F9" t="n">
+        <v>253.449</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-2.543</v>
+      </c>
+      <c r="H9" t="n">
+        <v>149.878</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-6.957</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.391</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.219</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" t="n">
+        <v>208.874</v>
+      </c>
+      <c r="C10" t="n">
+        <v>206.972</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.911</v>
+      </c>
+      <c r="E10" t="n">
+        <v>144.678</v>
+      </c>
+      <c r="F10" t="n">
+        <v>223.219</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="H10" t="n">
+        <v>142.783</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.613</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.497</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.811</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.835</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" t="n">
+        <v>287.934</v>
+      </c>
+      <c r="C11" t="n">
+        <v>315.424</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>202.998</v>
+      </c>
+      <c r="F11" t="n">
+        <v>308.118</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-2.316</v>
+      </c>
+      <c r="H11" t="n">
+        <v>129.528</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-36.193</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.602</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.805</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.913</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" t="n">
+        <v>194.911</v>
+      </c>
+      <c r="C12" t="n">
+        <v>185.782</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-4.684</v>
+      </c>
+      <c r="E12" t="n">
+        <v>115.581</v>
+      </c>
+      <c r="F12" t="n">
+        <v>181.513</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-2.298</v>
+      </c>
+      <c r="H12" t="n">
+        <v>89.658</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-22.428</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.438</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.241</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.246</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.305</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.843</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" t="n">
+        <v>157.416</v>
+      </c>
+      <c r="C13" t="n">
+        <v>110.43</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-29.848</v>
+      </c>
+      <c r="E13" t="n">
+        <v>68.45999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>105.208</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-4.729</v>
+      </c>
+      <c r="H13" t="n">
+        <v>68.23099999999999</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.335</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.969</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.332</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.336</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" t="n">
+        <v>78.04900000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>128.51</v>
+      </c>
+      <c r="D14" t="n">
+        <v>64.65300000000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>65.74299999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>106.166</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-17.387</v>
+      </c>
+      <c r="H14" t="n">
+        <v>67.217</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.242</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.277</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.348</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" t="n">
+        <v>128.246</v>
+      </c>
+      <c r="C15" t="n">
+        <v>101.203</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-21.087</v>
+      </c>
+      <c r="E15" t="n">
+        <v>65.61499999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>86.384</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-14.642</v>
+      </c>
+      <c r="H15" t="n">
+        <v>63.36</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-3.437</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.604</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.221</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.275</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.097</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" t="n">
+        <v>172.371</v>
+      </c>
+      <c r="C16" t="n">
+        <v>160.147</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-7.092</v>
+      </c>
+      <c r="E16" t="n">
+        <v>95.53700000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>135.681</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-15.278</v>
+      </c>
+      <c r="H16" t="n">
+        <v>57.41</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-39.908</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.157</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" t="n">
+        <v>88.205</v>
+      </c>
+      <c r="C17" t="n">
+        <v>79.654</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-9.695</v>
+      </c>
+      <c r="E17" t="n">
+        <v>55.328</v>
+      </c>
+      <c r="F17" t="n">
+        <v>84.256</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5.777</v>
+      </c>
+      <c r="H17" t="n">
+        <v>55.937</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.104</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.075</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B18" t="n">
+        <v>19.506</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15.939</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-18.284</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9.236000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12.285</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-22.925</v>
+      </c>
+      <c r="H18" t="n">
+        <v>22.371</v>
+      </c>
+      <c r="I18" t="n">
+        <v>142.222</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19" t="n">
+        <v>53.35</v>
+      </c>
+      <c r="C19" t="n">
+        <v>55.968</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.907</v>
+      </c>
+      <c r="E19" t="n">
+        <v>57.409</v>
+      </c>
+      <c r="F19" t="n">
+        <v>74.66200000000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20.741</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-63.872</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B20" t="n">
+        <v>32.644</v>
+      </c>
+      <c r="C20" t="n">
+        <v>28.994</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-11.18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>17.464</v>
+      </c>
+      <c r="F20" t="n">
+        <v>26.097</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-9.993</v>
+      </c>
+      <c r="H20" t="n">
+        <v>17.048</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-2.382</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B21" t="n">
+        <v>14.696</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7.126</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-51.509</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.691</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9.202</v>
+      </c>
+      <c r="G21" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8.266</v>
+      </c>
+      <c r="I21" t="n">
+        <v>23.535</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B22" t="n">
+        <v>16.056</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12.234</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-23.803</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9.147</v>
+      </c>
+      <c r="F22" t="n">
+        <v>13.644</v>
+      </c>
+      <c r="G22" t="n">
+        <v>11.522</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7.778</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-14.968</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6.442</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.554</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.453</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5.471</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-16.534</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.151</v>
+      </c>
+      <c r="I23" t="n">
+        <v>20.208</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24" t="n">
+        <v>9.805</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.692</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-31.747</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.655</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.181</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-37.528</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.847</v>
+      </c>
+      <c r="I24" t="n">
+        <v>44.866</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8.459</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.138</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-27.434</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5.399</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-12.047</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.495</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-40.86</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.137</v>
+      </c>
+      <c r="D26" t="n">
+        <v>175.77</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.699</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8.016</v>
+      </c>
+      <c r="G26" t="n">
+        <v>93.768</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.467</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-47.499</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.832</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8.999000000000001</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.426</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.185</v>
+      </c>
+      <c r="G27" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="I27" t="n">
+        <v>47.416</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.694</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.985</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-15.095</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.013</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-16.78</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.208</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-62.281</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-8.613</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="I29" t="n">
+        <v>108.651</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="9"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" width="9"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="9"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>225</v>
       </c>
       <c r="K1" s="2" t="s">
